--- a/trunk/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-03-12.xlsx
+++ b/trunk/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-03-12.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Minutes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues From Last Minutes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="1">Minutes!$B$3</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>FYP Project Meeting Minutes</t>
   </si>
@@ -91,16 +91,98 @@
   </si>
   <si>
     <t>Come up with few sample screens and fields</t>
+  </si>
+  <si>
+    <t>The Quality Plan was reviewed</t>
+  </si>
+  <si>
+    <t>Members to suggest and agree to the existing plan or any changes to the plan be made where if necessary.</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Contents of quality plan were agreed upon</t>
+  </si>
+  <si>
+    <t>SVN (Subversion for version control)</t>
+  </si>
+  <si>
+    <t>Alvin is to set up svn in Google for version control to keep track of changes / versions.</t>
+  </si>
+  <si>
+    <t>Alvin</t>
+  </si>
+  <si>
+    <t>Set up SVN Google</t>
+  </si>
+  <si>
+    <t>User Representative was changed from Tran Ba Tien to Truong Thieu Duong</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Additional Project Plan Reviwer. Truong Thieu Duong is added as an additional Project Plan Reviwer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Reviewer roles to be assigned to Maung Tin Kyaw Oo: (1) System Specification (2) Enhancement Specification (3) System Test Plan (4) Software Config. Man. Doc.
+</t>
+  </si>
+  <si>
+    <t>To be updated in respective documents</t>
+  </si>
+  <si>
+    <t>Documents updated</t>
+  </si>
+  <si>
+    <t>Change of role in System Test Plan. Maung Tin Kyaw Oo replaces Alvin Chang as a reviewer for System Test Plan</t>
+  </si>
+  <si>
+    <t>To be updated in System Test Plan draft</t>
+  </si>
+  <si>
+    <t>System Test Plan draft updated</t>
+  </si>
+  <si>
+    <t>Missing templates</t>
+  </si>
+  <si>
+    <t>To email and ask Dave for the missing templates</t>
+  </si>
+  <si>
+    <t>Templates received from Dave</t>
+  </si>
+  <si>
+    <t>Bug tracking: Tran Ba Tien suggested to use bug tracker to keep track of bugs and the changes made</t>
+  </si>
+  <si>
+    <t>To set up bug tracker</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Changes in functional requirement. Some part of the functional requirements were modified</t>
+  </si>
+  <si>
+    <t>To be updated in user requirements specifications document</t>
+  </si>
+  <si>
+    <t>URS updated</t>
+  </si>
+  <si>
+    <t>Truong Thieu Duong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -170,12 +252,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -254,6 +353,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,6 +388,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,24 +564,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -488,12 +589,12 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -501,7 +602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -509,7 +610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -517,7 +618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -525,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -533,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -541,7 +642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -558,14 +659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" style="6" customWidth="1"/>
@@ -576,7 +677,7 @@
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -596,7 +697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24">
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -616,7 +717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -636,7 +737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
@@ -647,13 +748,222 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>